--- a/InputFiles/ICDC/TC04_Canine_Filter_Study-UBC01.xlsx
+++ b/InputFiles/ICDC/TC04_Canine_Filter_Study-UBC01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\TestInputFiles_Sofia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7333F-E087-4CCA-87E7-852473AD9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F9B14-1585-4E4E-8844-E7FF2E6FE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,72 @@
   </si>
   <si>
     <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['UBC01']
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+WHERE s.clinical_study_designation IN ['UBC01']
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['UBC01'] 
+WITH s, c
+OPTIONAL MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+OPTIONAL MATCH (c)&lt;--(demo:demographic)
+WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+  coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+order by c.case_id asc
+limit 100</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -113,70 +179,9 @@
         coalesce(samp.sample_id, '') AS `Sample ID`,
         coalesce(c.case_id, '') AS `Case ID`,
         coalesce(demo.breed,'') AS Breed ,
-        coalesce(diag.disease_term,'') AS Diagnosis</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['UBC01']
-WITH DISTINCT f,  s, c, demo, diag
-WITH
-        f, c, demo, diag, s,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH    
-        f, c, demo, diag, s,
-        f.file_size /(1024^i) AS value, 10^precision AS factor,
-        units[i] as unit
-        WITH    
-        f,  c, demo, diag, s, unit,
-        round(factor * value)/factor AS size
-RETURN DISTINCT
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS  Format,
-  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-WHERE s.clinical_study_designation IN ['UBC01']
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-WHERE s.clinical_study_designation IN ['UBC01']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age
-RETURN  
-       coalesce(c.case_id, '') AS `Case ID`,
-       coalesce(s.clinical_study_designation, '') AS `Study Code`,
-       coalesce(s.clinical_study_type, '') AS  `Study Type`,
-       coalesce(demo.breed, '') AS Breed ,
-       coalesce(diag.disease_term, '') AS Diagnosis ,
-       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
-     coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`</t>
+        coalesce(diag.disease_term,'') AS Diagnosis
+    order by f.file_named asc
+limit 100</t>
   </si>
 </sst>
 </file>
@@ -258,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,21 +561,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="65.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -587,15 +592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -604,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -621,15 +626,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -638,15 +643,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -655,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
